--- a/Datasets/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/Processed dataset (supervised ML)/metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangx60\OneDrive - Queensland University of Technology\Desktop\Dataset QUTZS23\github\QUT-ZSS-2023-SV\Datasets\Processed dataset (supervised ML)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-SV/Datasets/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68236CD0-5891-4BBA-805A-65A7E022BD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{779A3A7B-A875-41E8-A831-8F615CCF08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51677BC8-7B7D-4DD1-8299-DC0EA8F23F70}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="208">
   <si>
     <t>Label</t>
   </si>
@@ -61,9 +61,6 @@
     <t>No. of Label 1xx</t>
   </si>
   <si>
-    <t>No. of Label 8xx</t>
-  </si>
-  <si>
     <t>No. of Label N/V</t>
   </si>
   <si>
@@ -611,6 +608,57 @@
   </si>
   <si>
     <t>974d</t>
+  </si>
+  <si>
+    <t>No. of Label 9xx</t>
+  </si>
+  <si>
+    <t>=IF(J432=17,911,101)</t>
+  </si>
+  <si>
+    <t>=IF(J433=17,911,101)</t>
+  </si>
+  <si>
+    <t>=IF(P412=17,911,103)</t>
+  </si>
+  <si>
+    <t>=IF(AE410=52,912,102)</t>
+  </si>
+  <si>
+    <t>=IF(AH410=52,912,104)</t>
+  </si>
+  <si>
+    <t>=IF(AE419=52,912,102)</t>
+  </si>
+  <si>
+    <t>=IF(AH429=52,912,104)</t>
+  </si>
+  <si>
+    <t>=IF(P415=17,911,103)</t>
+  </si>
+  <si>
+    <t>=IF(BC396=26,913,105)</t>
+  </si>
+  <si>
+    <t>=IF(BI379=26,913,106)</t>
+  </si>
+  <si>
+    <t>=IF(BC381=26,913,105)</t>
+  </si>
+  <si>
+    <t>=IF(BI399=26,913,106)</t>
+  </si>
+  <si>
+    <t>=IF(BL394=26,914,107)</t>
+  </si>
+  <si>
+    <t>=IF(BO394=26,914,108)</t>
+  </si>
+  <si>
+    <t>=IF(BR394=26,914,109)</t>
+  </si>
+  <si>
+    <t>=IF(BU394=26,914,110)</t>
   </si>
 </sst>
 </file>
@@ -794,6 +842,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,20 +860,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -840,6 +888,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,27 +1161,27 @@
   <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="109.140625" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="10.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="83.5546875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1152,392 +1204,712 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>911</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
+        <v>401</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4885</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2530</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1020</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1403</v>
+      </c>
+      <c r="H2" s="3">
+        <v>107</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
       <c r="J2" s="8" t="str">
         <f t="shared" ref="J2:J31" si="0">IF(SUM(F2:I2)=E2, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="K2" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>413</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4896</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2573</v>
+      </c>
+      <c r="F3" s="3">
+        <v>937</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1556</v>
+      </c>
+      <c r="H3" s="3">
+        <v>80</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
       <c r="J3" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="K3" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>412</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5077</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2779</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1030</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1494</v>
+      </c>
+      <c r="H4" s="3">
+        <v>255</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
       <c r="J4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="K4" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="C5" s="3">
+        <v>404</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5009</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2630</v>
+      </c>
+      <c r="F5" s="3">
+        <v>946</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1497</v>
+      </c>
+      <c r="H5" s="3">
+        <v>187</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
       <c r="J5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="K5" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>912</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>407</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4942</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2595</v>
+      </c>
+      <c r="F6" s="3">
+        <v>960</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1518</v>
+      </c>
+      <c r="H6" s="3">
+        <v>117</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
       <c r="J6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="K6" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C7" s="3">
+        <v>408</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4939</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2577</v>
+      </c>
+      <c r="F7" s="3">
+        <v>941</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1528</v>
+      </c>
+      <c r="H7" s="3">
+        <v>108</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
       <c r="J7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="K7" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C8" s="3">
+        <v>409</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5098</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2814</v>
+      </c>
+      <c r="F8" s="3">
+        <v>997</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1508</v>
+      </c>
+      <c r="H8" s="3">
+        <v>309</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
       <c r="J8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="K8" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C9" s="3">
+        <v>408</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5061</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2719</v>
+      </c>
+      <c r="F9" s="3">
+        <v>995</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1449</v>
+      </c>
+      <c r="H9" s="3">
+        <v>275</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
       <c r="J9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="K9" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>913</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="C10" s="3">
+        <v>407</v>
+      </c>
+      <c r="D10" s="3">
+        <v>4918</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2570</v>
+      </c>
+      <c r="F10" s="3">
+        <v>869</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1592</v>
+      </c>
+      <c r="H10" s="3">
+        <v>109</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
       <c r="J10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="K10" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>409</v>
+      </c>
+      <c r="D11" s="3">
+        <v>4929</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2555</v>
+      </c>
+      <c r="F11" s="3">
+        <v>897</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1541</v>
+      </c>
+      <c r="H11" s="3">
+        <v>117</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
       <c r="J11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="K11" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C12" s="3">
+        <v>411</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2613</v>
+      </c>
+      <c r="F12" s="3">
+        <v>796</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1648</v>
+      </c>
+      <c r="H12" s="3">
+        <v>169</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
       <c r="J12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="K12" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C13" s="3">
+        <v>408</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4987</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2663</v>
+      </c>
+      <c r="F13" s="3">
+        <v>829</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1679</v>
+      </c>
+      <c r="H13" s="3">
+        <v>155</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
       <c r="J13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="K13" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
         <v>914</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="C14" s="3">
+        <v>410</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4908</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2516</v>
+      </c>
+      <c r="F14" s="3">
+        <v>878</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1545</v>
+      </c>
+      <c r="H14" s="3">
+        <v>93</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
       <c r="J14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="K14" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>409</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4941</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2535</v>
+      </c>
+      <c r="F15" s="3">
+        <v>840</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1605</v>
+      </c>
+      <c r="H15" s="3">
+        <v>90</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
       <c r="J15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="K15" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="C16" s="3">
+        <v>406</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4903</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2582</v>
+      </c>
+      <c r="F16" s="3">
+        <v>817</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1680</v>
+      </c>
+      <c r="H16" s="3">
+        <v>85</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
       <c r="J16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="K16" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="C17" s="3">
+        <v>411</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4937</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2545</v>
+      </c>
+      <c r="F17" s="3">
+        <v>895</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1558</v>
+      </c>
+      <c r="H17" s="3">
+        <v>92</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
       <c r="J17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="K17" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="C18" s="3">
+        <v>421</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5078</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2649</v>
+      </c>
+      <c r="F18" s="3">
+        <v>813</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1668</v>
+      </c>
+      <c r="H18" s="3">
+        <v>168</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
       <c r="J18" s="8" t="str">
         <f t="shared" ref="J18:J21" si="1">IF(SUM(F18:I18)=E18, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="K18" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="C19" s="3">
+        <v>413</v>
+      </c>
+      <c r="D19" s="3">
+        <v>4994</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2648</v>
+      </c>
+      <c r="F19" s="3">
+        <v>853</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1636</v>
+      </c>
+      <c r="H19" s="3">
+        <v>159</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
       <c r="J19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="K19" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="C20" s="3">
+        <v>412</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4975</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2604</v>
+      </c>
+      <c r="F20" s="3">
+        <v>842</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1616</v>
+      </c>
+      <c r="H20" s="3">
+        <v>146</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
       <c r="J20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="K20" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="C21" s="3">
+        <v>413</v>
+      </c>
+      <c r="D21" s="3">
+        <v>5003</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2623</v>
+      </c>
+      <c r="F21" s="3">
+        <v>910</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1536</v>
+      </c>
+      <c r="H21" s="3">
+        <v>177</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
       <c r="J21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>Valid</v>
       </c>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="K21" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
         <v>921</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1552,10 +1924,10 @@
       </c>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1570,12 +1942,12 @@
       </c>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
         <v>922</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1590,10 +1962,10 @@
       </c>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1608,12 +1980,12 @@
       </c>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
         <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1628,10 +2000,10 @@
       </c>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1646,12 +2018,12 @@
       </c>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="13">
         <v>924</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1666,10 +2038,10 @@
       </c>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
       <c r="B29" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -1684,10 +2056,10 @@
       </c>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1702,10 +2074,10 @@
       </c>
       <c r="K30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
       <c r="B31" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1720,12 +2092,12 @@
       </c>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
         <v>931</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1740,10 +2112,10 @@
       </c>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -1758,10 +2130,10 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1776,10 +2148,10 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1794,12 +2166,12 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="13">
         <v>932</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1814,10 +2186,10 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -1832,10 +2204,10 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -1850,10 +2222,10 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1868,10 +2240,10 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
       <c r="B40" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -1886,10 +2258,10 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -1904,10 +2276,10 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
       <c r="B42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -1922,10 +2294,10 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1940,12 +2312,12 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="12">
         <v>933</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -1960,10 +2332,10 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="12"/>
       <c r="B45" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -1978,10 +2350,10 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1996,10 +2368,10 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -2014,12 +2386,12 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="13">
         <v>934</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2034,10 +2406,10 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
       <c r="B49" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2052,10 +2424,10 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
       <c r="B50" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2070,10 +2442,10 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
       <c r="B51" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2088,10 +2460,10 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
       <c r="B52" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2106,10 +2478,10 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="11"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
       <c r="B53" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2124,10 +2496,10 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
       <c r="B54" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2142,10 +2514,10 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="15"/>
       <c r="B55" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2160,12 +2532,12 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
         <v>941</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -2180,10 +2552,10 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
       <c r="B57" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -2198,10 +2570,10 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="12"/>
       <c r="B58" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -2216,10 +2588,10 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="12"/>
       <c r="B59" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -2234,12 +2606,12 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="13">
         <v>942</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2254,10 +2626,10 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="11"/>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
       <c r="B61" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -2272,10 +2644,10 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="11"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
       <c r="B62" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -2290,10 +2662,10 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="11"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
       <c r="B63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -2308,10 +2680,10 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
       <c r="B64" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2326,10 +2698,10 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="11"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
       <c r="B65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2344,10 +2716,10 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
       <c r="B66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2362,10 +2734,10 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="15"/>
       <c r="B67" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2380,12 +2752,12 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="12">
         <v>943</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -2400,10 +2772,10 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="12"/>
       <c r="B69" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -2418,10 +2790,10 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="12"/>
       <c r="B70" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -2436,10 +2808,10 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="12"/>
       <c r="B71" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -2454,12 +2826,12 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="10">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="13">
         <v>944</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -2474,10 +2846,10 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="11"/>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
       <c r="B73" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -2492,10 +2864,10 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
       <c r="B74" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2510,10 +2882,10 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
       <c r="B75" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2528,10 +2900,10 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
       <c r="B76" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2546,10 +2918,10 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
       <c r="B77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2564,10 +2936,10 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
       <c r="B78" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2582,10 +2954,10 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="15"/>
       <c r="B79" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2600,12 +2972,12 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="10">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="13">
         <v>951</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2620,10 +2992,10 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
       <c r="B81" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2638,10 +3010,10 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
       <c r="B82" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -2656,10 +3028,10 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
       <c r="B83" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -2674,10 +3046,10 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="14"/>
       <c r="B84" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -2692,10 +3064,10 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
       <c r="B85" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -2710,10 +3082,10 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
       <c r="B86" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -2728,10 +3100,10 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="15"/>
       <c r="B87" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -2746,12 +3118,12 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="10">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="13">
         <v>952</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -2766,10 +3138,10 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
       <c r="B89" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -2784,10 +3156,10 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
       <c r="B90" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -2802,10 +3174,10 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
       <c r="B91" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -2820,10 +3192,10 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
       <c r="B92" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -2838,10 +3210,10 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
       <c r="B93" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -2856,10 +3228,10 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
       <c r="B94" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2874,10 +3246,10 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="15"/>
       <c r="B95" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -2892,12 +3264,12 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="13">
         <v>953</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -2912,10 +3284,10 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
       <c r="B97" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -2930,10 +3302,10 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
       <c r="B98" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -2948,10 +3320,10 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
       <c r="B99" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -2966,10 +3338,10 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="14"/>
       <c r="B100" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -2984,10 +3356,10 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="14"/>
       <c r="B101" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3002,10 +3374,10 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="14"/>
       <c r="B102" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3020,10 +3392,10 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="15"/>
       <c r="B103" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3038,12 +3410,12 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="10">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="13">
         <v>954</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3058,10 +3430,10 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="14"/>
       <c r="B105" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3076,10 +3448,10 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="14"/>
       <c r="B106" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3094,10 +3466,10 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="14"/>
       <c r="B107" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3112,10 +3484,10 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="14"/>
       <c r="B108" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3130,10 +3502,10 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="14"/>
       <c r="B109" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3148,10 +3520,10 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="14"/>
       <c r="B110" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3166,10 +3538,10 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="14"/>
       <c r="B111" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3184,10 +3556,10 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="14"/>
       <c r="B112" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3202,10 +3574,10 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="14"/>
       <c r="B113" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3220,10 +3592,10 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="14"/>
       <c r="B114" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3238,10 +3610,10 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="14"/>
       <c r="B115" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -3256,10 +3628,10 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="14"/>
       <c r="B116" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -3274,10 +3646,10 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="14"/>
       <c r="B117" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -3292,10 +3664,10 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="14"/>
       <c r="B118" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -3310,10 +3682,10 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="15"/>
       <c r="B119" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -3328,12 +3700,12 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="10">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="13">
         <v>961</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -3348,10 +3720,10 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="14"/>
       <c r="B121" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -3366,10 +3738,10 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="11"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="14"/>
       <c r="B122" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -3384,10 +3756,10 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="14"/>
       <c r="B123" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -3402,10 +3774,10 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="11"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="14"/>
       <c r="B124" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3420,10 +3792,10 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="14"/>
       <c r="B125" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -3438,10 +3810,10 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="14"/>
       <c r="B126" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -3456,10 +3828,10 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="15"/>
       <c r="B127" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -3474,12 +3846,12 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="13">
         <v>962</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -3494,10 +3866,10 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="11"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="14"/>
       <c r="B129" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -3512,10 +3884,10 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="11"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="14"/>
       <c r="B130" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -3530,10 +3902,10 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="11"/>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="14"/>
       <c r="B131" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -3548,10 +3920,10 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="11"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="14"/>
       <c r="B132" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -3566,10 +3938,10 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="11"/>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="14"/>
       <c r="B133" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -3584,10 +3956,10 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="11"/>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
       <c r="B134" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -3602,10 +3974,10 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="15"/>
       <c r="B135" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3620,12 +3992,12 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="10">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="13">
         <v>963</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -3640,10 +4012,10 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="11"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="14"/>
       <c r="B137" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -3658,10 +4030,10 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="11"/>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="14"/>
       <c r="B138" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -3676,10 +4048,10 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="11"/>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="14"/>
       <c r="B139" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -3694,10 +4066,10 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="11"/>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="14"/>
       <c r="B140" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -3712,10 +4084,10 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="11"/>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="14"/>
       <c r="B141" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -3730,10 +4102,10 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="11"/>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="14"/>
       <c r="B142" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -3748,10 +4120,10 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="15"/>
       <c r="B143" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -3766,12 +4138,12 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="10">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="13">
         <v>964</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -3786,10 +4158,10 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="11"/>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="14"/>
       <c r="B145" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -3804,10 +4176,10 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="11"/>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="14"/>
       <c r="B146" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -3822,10 +4194,10 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="11"/>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="14"/>
       <c r="B147" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -3840,10 +4212,10 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="11"/>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="14"/>
       <c r="B148" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -3858,10 +4230,10 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="11"/>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="14"/>
       <c r="B149" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -3876,10 +4248,10 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="11"/>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="14"/>
       <c r="B150" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3894,10 +4266,10 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="11"/>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="14"/>
       <c r="B151" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -3912,10 +4284,10 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="11"/>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="14"/>
       <c r="B152" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -3930,10 +4302,10 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="11"/>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="14"/>
       <c r="B153" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -3948,10 +4320,10 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="11"/>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="14"/>
       <c r="B154" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -3966,10 +4338,10 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="11"/>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="14"/>
       <c r="B155" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -3984,10 +4356,10 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="11"/>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="14"/>
       <c r="B156" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -4002,10 +4374,10 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="11"/>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="14"/>
       <c r="B157" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4020,10 +4392,10 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
       <c r="B158" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -4038,10 +4410,10 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="14"/>
       <c r="B159" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -4056,12 +4428,12 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="13">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="12">
         <v>971</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -4076,10 +4448,10 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="12"/>
       <c r="B161" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -4094,12 +4466,12 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="13">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="12">
         <v>972</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -4114,10 +4486,10 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="12"/>
       <c r="B163" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -4132,12 +4504,12 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="13">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="12">
         <v>973</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -4152,10 +4524,10 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="13"/>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="12"/>
       <c r="B165" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -4170,12 +4542,12 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="10">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="13">
         <v>974</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -4190,10 +4562,10 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="11"/>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="14"/>
       <c r="B167" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -4208,10 +4580,10 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="11"/>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="14"/>
       <c r="B168" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -4226,10 +4598,10 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="11"/>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="14"/>
       <c r="B169" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -4244,22 +4616,22 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="16"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D170" s="15"/>
-      <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
-      <c r="H170" s="15"/>
-      <c r="I170" s="15"/>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="10"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>0</v>
       </c>
@@ -4292,10 +4664,10 @@
         <v>Valid</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>101</v>
       </c>
@@ -4328,10 +4700,10 @@
         <v>Valid</v>
       </c>
       <c r="K172" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>102</v>
       </c>
@@ -4364,10 +4736,10 @@
         <v>Valid</v>
       </c>
       <c r="K173" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>103</v>
       </c>
@@ -4400,10 +4772,10 @@
         <v>Valid</v>
       </c>
       <c r="K174" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>104</v>
       </c>
@@ -4436,10 +4808,10 @@
         <v>Valid</v>
       </c>
       <c r="K175" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>105</v>
       </c>
@@ -4472,10 +4844,10 @@
         <v>Valid</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>106</v>
       </c>
@@ -4508,10 +4880,10 @@
         <v>Valid</v>
       </c>
       <c r="K177" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>107</v>
       </c>
@@ -4544,10 +4916,10 @@
         <v>Valid</v>
       </c>
       <c r="K178" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>108</v>
       </c>
@@ -4580,10 +4952,10 @@
         <v>Valid</v>
       </c>
       <c r="K179" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>109</v>
       </c>
@@ -4616,10 +4988,10 @@
         <v>Valid</v>
       </c>
       <c r="K180" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>110</v>
       </c>
@@ -4652,10 +5024,10 @@
         <v>Valid</v>
       </c>
       <c r="K181" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="9">
         <f>COUNTA(A2:A181)</f>
         <v>39</v>
@@ -4666,54 +5038,50 @@
       </c>
       <c r="C182" s="9">
         <f>SUM(C2:C181)</f>
-        <v>9172</v>
+        <v>17364</v>
       </c>
       <c r="D182" s="9">
         <f t="shared" ref="D182:I182" si="5">SUM(D2:D181)</f>
-        <v>111081</v>
+        <v>210558</v>
       </c>
       <c r="E182" s="9">
         <f t="shared" si="5"/>
-        <v>9172</v>
+        <v>61492</v>
       </c>
       <c r="F182" s="9">
         <f t="shared" si="5"/>
-        <v>3652</v>
+        <v>21717</v>
       </c>
       <c r="G182" s="9">
         <f t="shared" si="5"/>
-        <v>5520</v>
+        <v>36777</v>
       </c>
       <c r="H182" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2998</v>
       </c>
       <c r="I182" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J182" s="14" t="s">
+      <c r="J182" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K182" s="14"/>
+      <c r="K182" s="16"/>
       <c r="L182" s="9" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="A104:A119"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="A80:A87"/>
     <mergeCell ref="J182:K182"/>
     <mergeCell ref="C170:I170"/>
     <mergeCell ref="A120:A127"/>
@@ -4724,14 +5092,18 @@
     <mergeCell ref="A162:A163"/>
     <mergeCell ref="A164:A165"/>
     <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A96:A103"/>
-    <mergeCell ref="A104:A119"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Datasets/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/Processed dataset (supervised ML)/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-SV/Datasets/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="13_ncr:1_{779A3A7B-A875-41E8-A831-8F615CCF08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51677BC8-7B7D-4DD1-8299-DC0EA8F23F70}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{779A3A7B-A875-41E8-A831-8F615CCF08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698C0376-D485-446F-8371-4ABDB284A9B4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="217">
   <si>
     <t>Label</t>
   </si>
@@ -659,6 +659,33 @@
   </si>
   <si>
     <t>=IF(BU394=26,914,110)</t>
+  </si>
+  <si>
+    <t>=IF(BC2=26,0,921)</t>
+  </si>
+  <si>
+    <t>=IF(BI2=26,0,921)</t>
+  </si>
+  <si>
+    <t>=IF(BC2=26,0,922)</t>
+  </si>
+  <si>
+    <t>=IF(BI2=26,0,922)</t>
+  </si>
+  <si>
+    <t>=IF(AE2=52,0,923)</t>
+  </si>
+  <si>
+    <t>=IF(AH2=52,0,923)</t>
+  </si>
+  <si>
+    <t>=IF(AE2=52,0,924)</t>
+  </si>
+  <si>
+    <t>=IF(AH2=52,0,924)</t>
+  </si>
+  <si>
+    <t>=IF(J2=2017,931,IF(OR(CW2=1,CW2=3,CW2=5),0,101))</t>
   </si>
 </sst>
 </file>
@@ -1161,27 +1188,27 @@
   <dimension ref="A1:L182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="10.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="83.5546875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="83.5703125" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>911</v>
       </c>
@@ -1252,7 +1279,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>24</v>
@@ -1286,7 +1313,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>25</v>
@@ -1320,7 +1347,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>26</v>
@@ -1354,7 +1381,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>912</v>
       </c>
@@ -1390,7 +1417,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>28</v>
@@ -1424,7 +1451,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -1458,7 +1485,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>30</v>
@@ -1492,7 +1519,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>913</v>
       </c>
@@ -1528,7 +1555,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
@@ -1562,7 +1589,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>33</v>
@@ -1596,7 +1623,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>34</v>
@@ -1630,7 +1657,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>914</v>
       </c>
@@ -1666,7 +1693,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="3" t="s">
         <v>100</v>
@@ -1700,7 +1727,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>103</v>
@@ -1734,7 +1761,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>104</v>
@@ -1768,7 +1795,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>101</v>
@@ -1802,7 +1829,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>102</v>
@@ -1836,7 +1863,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="3" t="s">
         <v>105</v>
@@ -1870,7 +1897,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="3" t="s">
         <v>124</v>
@@ -1904,195 +1931,355 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>921</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="C22" s="3">
+        <v>392</v>
+      </c>
+      <c r="D22" s="3">
+        <v>4848</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2519</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1169</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1350</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
       <c r="J22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="C23" s="3">
+        <v>398</v>
+      </c>
+      <c r="D23" s="3">
+        <v>4855</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2480</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1155</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1325</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
       <c r="J23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>922</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="C24" s="3">
+        <v>391</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4824</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2441</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1134</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1307</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
       <c r="J24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="C25" s="3">
+        <v>394</v>
+      </c>
+      <c r="D25" s="3">
+        <v>4879</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2459</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1139</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1320</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
       <c r="J25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="C26" s="3">
+        <v>403</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4839</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2531</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1157</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1374</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
       <c r="J26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="C27" s="3">
+        <v>395</v>
+      </c>
+      <c r="D27" s="3">
+        <v>4820</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2457</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1154</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1303</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
       <c r="J27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>924</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="C28" s="3">
+        <v>400</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4842</v>
+      </c>
+      <c r="E28" s="3">
+        <v>2458</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1014</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1444</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
       <c r="J28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="C29" s="3">
+        <v>401</v>
+      </c>
+      <c r="D29" s="3">
+        <v>4894</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2496</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1122</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1374</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
       <c r="J29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="C30" s="3">
+        <v>397</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4851</v>
+      </c>
+      <c r="E30" s="3">
+        <v>2475</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1132</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1343</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
       <c r="J30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="C31" s="3">
+        <v>403</v>
+      </c>
+      <c r="D31" s="3">
+        <v>4855</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2433</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1168</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1265</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
       <c r="J31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Valid</v>
       </c>
-      <c r="K31" s="5"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>931</v>
       </c>
@@ -2110,9 +2297,11 @@
         <f t="shared" ref="J32:J98" si="2">IF(SUM(F32:I32)=E32, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
@@ -2130,7 +2319,7 @@
       </c>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>37</v>
@@ -2148,7 +2337,7 @@
       </c>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
         <v>38</v>
@@ -2166,7 +2355,7 @@
       </c>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>932</v>
       </c>
@@ -2186,7 +2375,7 @@
       </c>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="3" t="s">
         <v>40</v>
@@ -2204,7 +2393,7 @@
       </c>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="3" t="s">
         <v>41</v>
@@ -2222,7 +2411,7 @@
       </c>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="3" t="s">
         <v>42</v>
@@ -2240,7 +2429,7 @@
       </c>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="3" t="s">
         <v>43</v>
@@ -2258,7 +2447,7 @@
       </c>
       <c r="K40" s="5"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="3" t="s">
         <v>44</v>
@@ -2276,7 +2465,7 @@
       </c>
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="3" t="s">
         <v>45</v>
@@ -2294,7 +2483,7 @@
       </c>
       <c r="K42" s="5"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="3" t="s">
         <v>46</v>
@@ -2312,7 +2501,7 @@
       </c>
       <c r="K43" s="5"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>933</v>
       </c>
@@ -2332,7 +2521,7 @@
       </c>
       <c r="K44" s="5"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="3" t="s">
         <v>48</v>
@@ -2350,7 +2539,7 @@
       </c>
       <c r="K45" s="5"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="12"/>
       <c r="B46" s="3" t="s">
         <v>49</v>
@@ -2368,7 +2557,7 @@
       </c>
       <c r="K46" s="5"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="12"/>
       <c r="B47" s="3" t="s">
         <v>50</v>
@@ -2386,7 +2575,7 @@
       </c>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>934</v>
       </c>
@@ -2406,7 +2595,7 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="3" t="s">
         <v>117</v>
@@ -2424,7 +2613,7 @@
       </c>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="3" t="s">
         <v>118</v>
@@ -2442,7 +2631,7 @@
       </c>
       <c r="K50" s="5"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="3" t="s">
         <v>119</v>
@@ -2460,7 +2649,7 @@
       </c>
       <c r="K51" s="5"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="3" t="s">
         <v>120</v>
@@ -2478,7 +2667,7 @@
       </c>
       <c r="K52" s="5"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="3" t="s">
         <v>121</v>
@@ -2496,7 +2685,7 @@
       </c>
       <c r="K53" s="5"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="3" t="s">
         <v>122</v>
@@ -2514,7 +2703,7 @@
       </c>
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="3" t="s">
         <v>123</v>
@@ -2532,7 +2721,7 @@
       </c>
       <c r="K55" s="5"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>941</v>
       </c>
@@ -2552,7 +2741,7 @@
       </c>
       <c r="K56" s="5"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
       <c r="B57" s="3" t="s">
         <v>52</v>
@@ -2570,7 +2759,7 @@
       </c>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="12"/>
       <c r="B58" s="3" t="s">
         <v>53</v>
@@ -2588,7 +2777,7 @@
       </c>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
       <c r="B59" s="3" t="s">
         <v>54</v>
@@ -2606,7 +2795,7 @@
       </c>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>942</v>
       </c>
@@ -2626,7 +2815,7 @@
       </c>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="3" t="s">
         <v>56</v>
@@ -2644,7 +2833,7 @@
       </c>
       <c r="K61" s="5"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="3" t="s">
         <v>57</v>
@@ -2662,7 +2851,7 @@
       </c>
       <c r="K62" s="5"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="3" t="s">
         <v>58</v>
@@ -2680,7 +2869,7 @@
       </c>
       <c r="K63" s="5"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="3" t="s">
         <v>125</v>
@@ -2698,7 +2887,7 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="3" t="s">
         <v>126</v>
@@ -2716,7 +2905,7 @@
       </c>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="3" t="s">
         <v>127</v>
@@ -2734,7 +2923,7 @@
       </c>
       <c r="K66" s="5"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="3" t="s">
         <v>128</v>
@@ -2752,7 +2941,7 @@
       </c>
       <c r="K67" s="5"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>943</v>
       </c>
@@ -2772,7 +2961,7 @@
       </c>
       <c r="K68" s="5"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
       <c r="B69" s="3" t="s">
         <v>60</v>
@@ -2790,7 +2979,7 @@
       </c>
       <c r="K69" s="5"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
       <c r="B70" s="3" t="s">
         <v>61</v>
@@ -2808,7 +2997,7 @@
       </c>
       <c r="K70" s="5"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="12"/>
       <c r="B71" s="3" t="s">
         <v>62</v>
@@ -2826,7 +3015,7 @@
       </c>
       <c r="K71" s="5"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>944</v>
       </c>
@@ -2846,7 +3035,7 @@
       </c>
       <c r="K72" s="5"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="3" t="s">
         <v>130</v>
@@ -2864,7 +3053,7 @@
       </c>
       <c r="K73" s="5"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="3" t="s">
         <v>131</v>
@@ -2882,7 +3071,7 @@
       </c>
       <c r="K74" s="5"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="3" t="s">
         <v>132</v>
@@ -2900,7 +3089,7 @@
       </c>
       <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="3" t="s">
         <v>133</v>
@@ -2918,7 +3107,7 @@
       </c>
       <c r="K76" s="5"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="3" t="s">
         <v>134</v>
@@ -2936,7 +3125,7 @@
       </c>
       <c r="K77" s="5"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="3" t="s">
         <v>135</v>
@@ -2954,7 +3143,7 @@
       </c>
       <c r="K78" s="5"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="3" t="s">
         <v>136</v>
@@ -2972,7 +3161,7 @@
       </c>
       <c r="K79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>951</v>
       </c>
@@ -2992,7 +3181,7 @@
       </c>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="3" t="s">
         <v>64</v>
@@ -3010,7 +3199,7 @@
       </c>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="3" t="s">
         <v>65</v>
@@ -3028,7 +3217,7 @@
       </c>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="3" t="s">
         <v>66</v>
@@ -3046,7 +3235,7 @@
       </c>
       <c r="K83" s="5"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="3" t="s">
         <v>67</v>
@@ -3064,7 +3253,7 @@
       </c>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="3" t="s">
         <v>68</v>
@@ -3082,7 +3271,7 @@
       </c>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="3" t="s">
         <v>69</v>
@@ -3100,7 +3289,7 @@
       </c>
       <c r="K86" s="5"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="15"/>
       <c r="B87" s="3" t="s">
         <v>70</v>
@@ -3118,7 +3307,7 @@
       </c>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>952</v>
       </c>
@@ -3138,7 +3327,7 @@
       </c>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="B89" s="3" t="s">
         <v>72</v>
@@ -3156,7 +3345,7 @@
       </c>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="3" t="s">
         <v>73</v>
@@ -3174,7 +3363,7 @@
       </c>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="B91" s="3" t="s">
         <v>74</v>
@@ -3192,7 +3381,7 @@
       </c>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="3" t="s">
         <v>75</v>
@@ -3210,7 +3399,7 @@
       </c>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="3" t="s">
         <v>76</v>
@@ -3228,7 +3417,7 @@
       </c>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="3" t="s">
         <v>77</v>
@@ -3246,7 +3435,7 @@
       </c>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="3" t="s">
         <v>78</v>
@@ -3264,7 +3453,7 @@
       </c>
       <c r="K95" s="5"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>953</v>
       </c>
@@ -3284,7 +3473,7 @@
       </c>
       <c r="K96" s="5"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="B97" s="3" t="s">
         <v>80</v>
@@ -3302,7 +3491,7 @@
       </c>
       <c r="K97" s="5"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="B98" s="3" t="s">
         <v>81</v>
@@ -3320,7 +3509,7 @@
       </c>
       <c r="K98" s="5"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="B99" s="3" t="s">
         <v>82</v>
@@ -3338,7 +3527,7 @@
       </c>
       <c r="K99" s="5"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="B100" s="3" t="s">
         <v>83</v>
@@ -3356,7 +3545,7 @@
       </c>
       <c r="K100" s="5"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="B101" s="3" t="s">
         <v>84</v>
@@ -3374,7 +3563,7 @@
       </c>
       <c r="K101" s="5"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="B102" s="3" t="s">
         <v>85</v>
@@ -3392,7 +3581,7 @@
       </c>
       <c r="K102" s="5"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="3" t="s">
         <v>86</v>
@@ -3410,7 +3599,7 @@
       </c>
       <c r="K103" s="5"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>954</v>
       </c>
@@ -3430,7 +3619,7 @@
       </c>
       <c r="K104" s="5"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="B105" s="3" t="s">
         <v>138</v>
@@ -3448,7 +3637,7 @@
       </c>
       <c r="K105" s="5"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="3" t="s">
         <v>145</v>
@@ -3466,7 +3655,7 @@
       </c>
       <c r="K106" s="5"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="B107" s="3" t="s">
         <v>146</v>
@@ -3484,7 +3673,7 @@
       </c>
       <c r="K107" s="5"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="14"/>
       <c r="B108" s="3" t="s">
         <v>139</v>
@@ -3502,7 +3691,7 @@
       </c>
       <c r="K108" s="5"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
       <c r="B109" s="3" t="s">
         <v>140</v>
@@ -3520,7 +3709,7 @@
       </c>
       <c r="K109" s="5"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="14"/>
       <c r="B110" s="3" t="s">
         <v>147</v>
@@ -3538,7 +3727,7 @@
       </c>
       <c r="K110" s="5"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
       <c r="B111" s="3" t="s">
         <v>148</v>
@@ -3556,7 +3745,7 @@
       </c>
       <c r="K111" s="5"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="14"/>
       <c r="B112" s="3" t="s">
         <v>141</v>
@@ -3574,7 +3763,7 @@
       </c>
       <c r="K112" s="5"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="14"/>
       <c r="B113" s="3" t="s">
         <v>142</v>
@@ -3592,7 +3781,7 @@
       </c>
       <c r="K113" s="5"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
       <c r="B114" s="3" t="s">
         <v>149</v>
@@ -3610,7 +3799,7 @@
       </c>
       <c r="K114" s="5"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="14"/>
       <c r="B115" s="3" t="s">
         <v>150</v>
@@ -3628,7 +3817,7 @@
       </c>
       <c r="K115" s="5"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
       <c r="B116" s="3" t="s">
         <v>143</v>
@@ -3646,7 +3835,7 @@
       </c>
       <c r="K116" s="5"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="3" t="s">
         <v>144</v>
@@ -3664,7 +3853,7 @@
       </c>
       <c r="K117" s="5"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
       <c r="B118" s="3" t="s">
         <v>151</v>
@@ -3682,7 +3871,7 @@
       </c>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="3" t="s">
         <v>152</v>
@@ -3700,7 +3889,7 @@
       </c>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="13">
         <v>961</v>
       </c>
@@ -3720,7 +3909,7 @@
       </c>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="14"/>
       <c r="B121" s="3" t="s">
         <v>88</v>
@@ -3738,7 +3927,7 @@
       </c>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="14"/>
       <c r="B122" s="3" t="s">
         <v>89</v>
@@ -3756,7 +3945,7 @@
       </c>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="14"/>
       <c r="B123" s="3" t="s">
         <v>90</v>
@@ -3774,7 +3963,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="14"/>
       <c r="B124" s="3" t="s">
         <v>153</v>
@@ -3792,7 +3981,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="3" t="s">
         <v>154</v>
@@ -3810,7 +3999,7 @@
       </c>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="14"/>
       <c r="B126" s="3" t="s">
         <v>155</v>
@@ -3828,7 +4017,7 @@
       </c>
       <c r="K126" s="5"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="3" t="s">
         <v>156</v>
@@ -3846,7 +4035,7 @@
       </c>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="13">
         <v>962</v>
       </c>
@@ -3866,7 +4055,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="14"/>
       <c r="B129" s="3" t="s">
         <v>92</v>
@@ -3884,7 +4073,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="14"/>
       <c r="B130" s="3" t="s">
         <v>93</v>
@@ -3902,7 +4091,7 @@
       </c>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="14"/>
       <c r="B131" s="3" t="s">
         <v>94</v>
@@ -3920,7 +4109,7 @@
       </c>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="14"/>
       <c r="B132" s="3" t="s">
         <v>157</v>
@@ -3938,7 +4127,7 @@
       </c>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="3" t="s">
         <v>158</v>
@@ -3956,7 +4145,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="14"/>
       <c r="B134" s="3" t="s">
         <v>159</v>
@@ -3974,7 +4163,7 @@
       </c>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="3" t="s">
         <v>160</v>
@@ -3992,7 +4181,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="13">
         <v>963</v>
       </c>
@@ -4012,7 +4201,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="14"/>
       <c r="B137" s="3" t="s">
         <v>96</v>
@@ -4030,7 +4219,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="14"/>
       <c r="B138" s="3" t="s">
         <v>97</v>
@@ -4048,7 +4237,7 @@
       </c>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="14"/>
       <c r="B139" s="3" t="s">
         <v>98</v>
@@ -4066,7 +4255,7 @@
       </c>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="14"/>
       <c r="B140" s="3" t="s">
         <v>161</v>
@@ -4084,7 +4273,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="14"/>
       <c r="B141" s="3" t="s">
         <v>162</v>
@@ -4102,7 +4291,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="14"/>
       <c r="B142" s="3" t="s">
         <v>163</v>
@@ -4120,7 +4309,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="3" t="s">
         <v>164</v>
@@ -4138,7 +4327,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="13">
         <v>964</v>
       </c>
@@ -4158,7 +4347,7 @@
       </c>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="14"/>
       <c r="B145" s="3" t="s">
         <v>166</v>
@@ -4176,7 +4365,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="14"/>
       <c r="B146" s="3" t="s">
         <v>167</v>
@@ -4194,7 +4383,7 @@
       </c>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="14"/>
       <c r="B147" s="3" t="s">
         <v>168</v>
@@ -4212,7 +4401,7 @@
       </c>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="14"/>
       <c r="B148" s="3" t="s">
         <v>169</v>
@@ -4230,7 +4419,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="14"/>
       <c r="B149" s="3" t="s">
         <v>170</v>
@@ -4248,7 +4437,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="14"/>
       <c r="B150" s="3" t="s">
         <v>171</v>
@@ -4266,7 +4455,7 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="14"/>
       <c r="B151" s="3" t="s">
         <v>172</v>
@@ -4284,7 +4473,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="14"/>
       <c r="B152" s="3" t="s">
         <v>173</v>
@@ -4302,7 +4491,7 @@
       </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="14"/>
       <c r="B153" s="3" t="s">
         <v>174</v>
@@ -4320,7 +4509,7 @@
       </c>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
       <c r="B154" s="3" t="s">
         <v>175</v>
@@ -4338,7 +4527,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
       <c r="B155" s="3" t="s">
         <v>176</v>
@@ -4356,7 +4545,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="14"/>
       <c r="B156" s="3" t="s">
         <v>177</v>
@@ -4374,7 +4563,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="14"/>
       <c r="B157" s="3" t="s">
         <v>178</v>
@@ -4392,7 +4581,7 @@
       </c>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="14"/>
       <c r="B158" s="3" t="s">
         <v>179</v>
@@ -4410,7 +4599,7 @@
       </c>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="14"/>
       <c r="B159" s="3" t="s">
         <v>180</v>
@@ -4428,7 +4617,7 @@
       </c>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>971</v>
       </c>
@@ -4448,7 +4637,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="12"/>
       <c r="B161" s="3" t="s">
         <v>182</v>
@@ -4466,7 +4655,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>972</v>
       </c>
@@ -4486,7 +4675,7 @@
       </c>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="12"/>
       <c r="B163" s="3" t="s">
         <v>184</v>
@@ -4504,7 +4693,7 @@
       </c>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>973</v>
       </c>
@@ -4524,7 +4713,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="12"/>
       <c r="B165" s="3" t="s">
         <v>186</v>
@@ -4542,7 +4731,7 @@
       </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="13">
         <v>974</v>
       </c>
@@ -4562,7 +4751,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="14"/>
       <c r="B167" s="3" t="s">
         <v>188</v>
@@ -4580,7 +4769,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="14"/>
       <c r="B168" s="3" t="s">
         <v>189</v>
@@ -4598,7 +4787,7 @@
       </c>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="14"/>
       <c r="B169" s="3" t="s">
         <v>190</v>
@@ -4616,7 +4805,7 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="11"/>
       <c r="C170" s="17" t="s">
@@ -4631,7 +4820,7 @@
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>0</v>
       </c>
@@ -4645,10 +4834,10 @@
         <v>10068</v>
       </c>
       <c r="E171" s="3">
-        <v>821</v>
+        <v>5169</v>
       </c>
       <c r="F171" s="3">
-        <v>821</v>
+        <v>5169</v>
       </c>
       <c r="G171" s="3">
         <v>0</v>
@@ -4667,7 +4856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>101</v>
       </c>
@@ -4681,13 +4870,13 @@
         <v>10092</v>
       </c>
       <c r="E172" s="3">
-        <v>833</v>
+        <v>5178</v>
       </c>
       <c r="F172" s="3">
-        <v>285</v>
+        <v>1811</v>
       </c>
       <c r="G172" s="3">
-        <v>548</v>
+        <v>3367</v>
       </c>
       <c r="H172" s="3">
         <v>0</v>
@@ -4703,7 +4892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>102</v>
       </c>
@@ -4717,13 +4906,13 @@
         <v>10053</v>
       </c>
       <c r="E173" s="3">
-        <v>833</v>
+        <v>5123</v>
       </c>
       <c r="F173" s="3">
-        <v>286</v>
+        <v>1753</v>
       </c>
       <c r="G173" s="3">
-        <v>547</v>
+        <v>3370</v>
       </c>
       <c r="H173" s="3">
         <v>0</v>
@@ -4739,7 +4928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>103</v>
       </c>
@@ -4753,13 +4942,13 @@
         <v>10123</v>
       </c>
       <c r="E174" s="3">
-        <v>837</v>
+        <v>5096</v>
       </c>
       <c r="F174" s="3">
-        <v>295</v>
+        <v>1814</v>
       </c>
       <c r="G174" s="3">
-        <v>542</v>
+        <v>3282</v>
       </c>
       <c r="H174" s="3">
         <v>0</v>
@@ -4775,7 +4964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>104</v>
       </c>
@@ -4789,13 +4978,13 @@
         <v>10072</v>
       </c>
       <c r="E175" s="3">
-        <v>836</v>
+        <v>5141</v>
       </c>
       <c r="F175" s="3">
-        <v>292</v>
+        <v>1800</v>
       </c>
       <c r="G175" s="3">
-        <v>544</v>
+        <v>3341</v>
       </c>
       <c r="H175" s="3">
         <v>0</v>
@@ -4811,7 +5000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>105</v>
       </c>
@@ -4825,13 +5014,13 @@
         <v>10083</v>
       </c>
       <c r="E176" s="3">
-        <v>836</v>
+        <v>5231</v>
       </c>
       <c r="F176" s="3">
-        <v>278</v>
+        <v>1726</v>
       </c>
       <c r="G176" s="3">
-        <v>558</v>
+        <v>3505</v>
       </c>
       <c r="H176" s="3">
         <v>0</v>
@@ -4847,7 +5036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>106</v>
       </c>
@@ -4861,13 +5050,13 @@
         <v>10139</v>
       </c>
       <c r="E177" s="3">
-        <v>837</v>
+        <v>5132</v>
       </c>
       <c r="F177" s="3">
-        <v>270</v>
+        <v>1667</v>
       </c>
       <c r="G177" s="3">
-        <v>567</v>
+        <v>3465</v>
       </c>
       <c r="H177" s="3">
         <v>0</v>
@@ -4883,7 +5072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>107</v>
       </c>
@@ -4897,13 +5086,13 @@
         <v>10020</v>
       </c>
       <c r="E178" s="3">
-        <v>829</v>
+        <v>5078</v>
       </c>
       <c r="F178" s="3">
-        <v>278</v>
+        <v>1716</v>
       </c>
       <c r="G178" s="3">
-        <v>551</v>
+        <v>3362</v>
       </c>
       <c r="H178" s="3">
         <v>0</v>
@@ -4919,7 +5108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>108</v>
       </c>
@@ -4933,13 +5122,13 @@
         <v>10114</v>
       </c>
       <c r="E179" s="3">
-        <v>836</v>
+        <v>5166</v>
       </c>
       <c r="F179" s="3">
-        <v>287</v>
+        <v>1814</v>
       </c>
       <c r="G179" s="3">
-        <v>549</v>
+        <v>3352</v>
       </c>
       <c r="H179" s="3">
         <v>0</v>
@@ -4955,7 +5144,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>109</v>
       </c>
@@ -4969,13 +5158,13 @@
         <v>10171</v>
       </c>
       <c r="E180" s="3">
-        <v>841</v>
+        <v>5223</v>
       </c>
       <c r="F180" s="3">
-        <v>282</v>
+        <v>1783</v>
       </c>
       <c r="G180" s="3">
-        <v>559</v>
+        <v>3440</v>
       </c>
       <c r="H180" s="3">
         <v>0</v>
@@ -4991,7 +5180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>110</v>
       </c>
@@ -5005,13 +5194,13 @@
         <v>10146</v>
       </c>
       <c r="E181" s="3">
-        <v>833</v>
+        <v>5166</v>
       </c>
       <c r="F181" s="3">
-        <v>278</v>
+        <v>1744</v>
       </c>
       <c r="G181" s="3">
-        <v>555</v>
+        <v>3422</v>
       </c>
       <c r="H181" s="3">
         <v>0</v>
@@ -5027,7 +5216,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <f>COUNTA(A2:A181)</f>
         <v>39</v>
@@ -5038,27 +5227,27 @@
       </c>
       <c r="C182" s="9">
         <f>SUM(C2:C181)</f>
-        <v>17364</v>
+        <v>21338</v>
       </c>
       <c r="D182" s="9">
         <f t="shared" ref="D182:I182" si="5">SUM(D2:D181)</f>
-        <v>210558</v>
+        <v>259065</v>
       </c>
       <c r="E182" s="9">
         <f t="shared" si="5"/>
-        <v>61492</v>
+        <v>133772</v>
       </c>
       <c r="F182" s="9">
         <f t="shared" si="5"/>
-        <v>21717</v>
+        <v>52206</v>
       </c>
       <c r="G182" s="9">
         <f t="shared" si="5"/>
-        <v>36777</v>
+        <v>65163</v>
       </c>
       <c r="H182" s="9">
         <f t="shared" si="5"/>
-        <v>2998</v>
+        <v>16403</v>
       </c>
       <c r="I182" s="9">
         <f t="shared" si="5"/>

--- a/Datasets/Processed dataset (supervised ML)/metadata.xlsx
+++ b/Datasets/Processed dataset (supervised ML)/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/wangx60_qut_edu_au/Documents/Desktop/Dataset QUTZS23/github/QUT-ZSS-2023-SV/Datasets/Processed dataset (supervised ML)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{779A3A7B-A875-41E8-A831-8F615CCF08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{698C0376-D485-446F-8371-4ABDB284A9B4}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{779A3A7B-A875-41E8-A831-8F615CCF08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9328E31-2695-4462-A6BB-2CC7C7A1701E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="207">
   <si>
     <t>Label</t>
   </si>
@@ -244,12 +244,6 @@
     <t>9513b</t>
   </si>
   <si>
-    <t>9514a</t>
-  </si>
-  <si>
-    <t>9514b</t>
-  </si>
-  <si>
     <t>9521a</t>
   </si>
   <si>
@@ -268,12 +262,6 @@
     <t>9523b</t>
   </si>
   <si>
-    <t>9524a</t>
-  </si>
-  <si>
-    <t>9524b</t>
-  </si>
-  <si>
     <t>9531a</t>
   </si>
   <si>
@@ -292,12 +280,6 @@
     <t>9533b</t>
   </si>
   <si>
-    <t>9534a</t>
-  </si>
-  <si>
-    <t>9534b</t>
-  </si>
-  <si>
     <t>9611a</t>
   </si>
   <si>
@@ -466,12 +448,6 @@
     <t>9543b</t>
   </si>
   <si>
-    <t>9544a</t>
-  </si>
-  <si>
-    <t>9544b</t>
-  </si>
-  <si>
     <t>9541c</t>
   </si>
   <si>
@@ -488,12 +464,6 @@
   </si>
   <si>
     <t>9543d</t>
-  </si>
-  <si>
-    <t>9544c</t>
-  </si>
-  <si>
-    <t>9544d</t>
   </si>
   <si>
     <t>9613a</t>
@@ -875,9 +845,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,6 +852,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1185,11 +1155,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242D98A4-6CBD-4CB3-8207-0942D773A1FC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L182"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G187" sqref="G187"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1201,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -1244,7 +1214,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="A2" s="15">
         <v>911</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1276,11 +1246,11 @@
         <v>Valid</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
@@ -1310,11 +1280,11 @@
         <v>Valid</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1344,11 +1314,11 @@
         <v>Valid</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
@@ -1378,11 +1348,11 @@
         <v>Valid</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="15">
         <v>912</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1414,11 +1384,11 @@
         <v>Valid</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1448,11 +1418,11 @@
         <v>Valid</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1482,11 +1452,11 @@
         <v>Valid</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1516,11 +1486,11 @@
         <v>Valid</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="15">
         <v>913</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1552,11 +1522,11 @@
         <v>Valid</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1586,11 +1556,11 @@
         <v>Valid</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1620,11 +1590,11 @@
         <v>Valid</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1654,15 +1624,15 @@
         <v>Valid</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="12">
         <v>914</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C14" s="3">
         <v>410</v>
@@ -1690,13 +1660,13 @@
         <v>Valid</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C15" s="3">
         <v>409</v>
@@ -1724,13 +1694,13 @@
         <v>Valid</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C16" s="3">
         <v>406</v>
@@ -1758,13 +1728,13 @@
         <v>Valid</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C17" s="3">
         <v>411</v>
@@ -1792,13 +1762,13 @@
         <v>Valid</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3">
         <v>421</v>
@@ -1826,13 +1796,13 @@
         <v>Valid</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3">
         <v>413</v>
@@ -1860,13 +1830,13 @@
         <v>Valid</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3">
         <v>412</v>
@@ -1894,13 +1864,13 @@
         <v>Valid</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3">
         <v>413</v>
@@ -1928,15 +1898,15 @@
         <v>Valid</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
+      <c r="A22" s="15">
         <v>921</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C22" s="3">
         <v>392</v>
@@ -1964,13 +1934,13 @@
         <v>Valid</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C23" s="3">
         <v>398</v>
@@ -1998,15 +1968,15 @@
         <v>Valid</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
+      <c r="A24" s="15">
         <v>922</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C24" s="3">
         <v>391</v>
@@ -2034,13 +2004,13 @@
         <v>Valid</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C25" s="3">
         <v>394</v>
@@ -2068,15 +2038,15 @@
         <v>Valid</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
+      <c r="A26" s="15">
         <v>923</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3">
         <v>403</v>
@@ -2104,13 +2074,13 @@
         <v>Valid</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C27" s="3">
         <v>395</v>
@@ -2138,15 +2108,15 @@
         <v>Valid</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="12">
         <v>924</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3">
         <v>400</v>
@@ -2174,13 +2144,13 @@
         <v>Valid</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C29" s="3">
         <v>401</v>
@@ -2208,13 +2178,13 @@
         <v>Valid</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C30" s="3">
         <v>397</v>
@@ -2242,13 +2212,13 @@
         <v>Valid</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C31" s="3">
         <v>403</v>
@@ -2276,11 +2246,11 @@
         <v>Valid</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
+      <c r="A32" s="15">
         <v>931</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2294,15 +2264,15 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="8" t="str">
-        <f t="shared" ref="J32:J98" si="2">IF(SUM(F32:I32)=E32, "Valid", "Error")</f>
+        <f t="shared" ref="J32:J94" si="2">IF(SUM(F32:I32)=E32, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -2320,7 +2290,7 @@
       <c r="K33" s="5"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
@@ -2338,7 +2308,7 @@
       <c r="K34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -2356,7 +2326,7 @@
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="12">
         <v>932</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2376,7 +2346,7 @@
       <c r="K36" s="5"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="3" t="s">
         <v>40</v>
       </c>
@@ -2394,7 +2364,7 @@
       <c r="K37" s="5"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
@@ -2412,7 +2382,7 @@
       <c r="K38" s="5"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
@@ -2430,7 +2400,7 @@
       <c r="K39" s="5"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
@@ -2448,7 +2418,7 @@
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
@@ -2466,7 +2436,7 @@
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
@@ -2484,7 +2454,7 @@
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
@@ -2502,7 +2472,7 @@
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
+      <c r="A44" s="15">
         <v>933</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2522,7 +2492,7 @@
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
@@ -2540,7 +2510,7 @@
       <c r="K45" s="5"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="3" t="s">
         <v>49</v>
       </c>
@@ -2558,7 +2528,7 @@
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="3" t="s">
         <v>50</v>
       </c>
@@ -2576,11 +2546,11 @@
       <c r="K47" s="5"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>934</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -2596,9 +2566,9 @@
       <c r="K48" s="5"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -2614,9 +2584,9 @@
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -2632,9 +2602,9 @@
       <c r="K50" s="5"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -2650,9 +2620,9 @@
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2668,9 +2638,9 @@
       <c r="K52" s="5"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -2686,9 +2656,9 @@
       <c r="K53" s="5"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2704,9 +2674,9 @@
       <c r="K54" s="5"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -2722,7 +2692,7 @@
       <c r="K55" s="5"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="12">
+      <c r="A56" s="15">
         <v>941</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2742,7 +2712,7 @@
       <c r="K56" s="5"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3" t="s">
         <v>52</v>
       </c>
@@ -2760,7 +2730,7 @@
       <c r="K57" s="5"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="3" t="s">
         <v>53</v>
       </c>
@@ -2778,7 +2748,7 @@
       <c r="K58" s="5"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
@@ -2796,7 +2766,7 @@
       <c r="K59" s="5"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>942</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2816,7 +2786,7 @@
       <c r="K60" s="5"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="3" t="s">
         <v>56</v>
       </c>
@@ -2834,7 +2804,7 @@
       <c r="K61" s="5"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="3" t="s">
         <v>57</v>
       </c>
@@ -2852,7 +2822,7 @@
       <c r="K62" s="5"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="3" t="s">
         <v>58</v>
       </c>
@@ -2870,9 +2840,9 @@
       <c r="K63" s="5"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -2888,9 +2858,9 @@
       <c r="K64" s="5"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -2906,9 +2876,9 @@
       <c r="K65" s="5"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -2924,9 +2894,9 @@
       <c r="K66" s="5"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2942,7 +2912,7 @@
       <c r="K67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="12">
+      <c r="A68" s="15">
         <v>943</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2962,7 +2932,7 @@
       <c r="K68" s="5"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3" t="s">
         <v>60</v>
       </c>
@@ -2980,7 +2950,7 @@
       <c r="K69" s="5"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="3" t="s">
         <v>61</v>
       </c>
@@ -2998,7 +2968,7 @@
       <c r="K70" s="5"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
@@ -3016,11 +2986,11 @@
       <c r="K71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>944</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -3036,9 +3006,9 @@
       <c r="K72" s="5"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -3054,9 +3024,9 @@
       <c r="K73" s="5"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3072,9 +3042,9 @@
       <c r="K74" s="5"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -3090,9 +3060,9 @@
       <c r="K75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -3108,9 +3078,9 @@
       <c r="K76" s="5"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -3126,9 +3096,9 @@
       <c r="K77" s="5"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3144,9 +3114,9 @@
       <c r="K78" s="5"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3162,7 +3132,7 @@
       <c r="K79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>951</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -3182,7 +3152,7 @@
       <c r="K80" s="5"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="3" t="s">
         <v>64</v>
       </c>
@@ -3200,7 +3170,7 @@
       <c r="K81" s="5"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="3" t="s">
         <v>65</v>
       </c>
@@ -3218,7 +3188,7 @@
       <c r="K82" s="5"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="3" t="s">
         <v>66</v>
       </c>
@@ -3236,7 +3206,7 @@
       <c r="K83" s="5"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="3" t="s">
         <v>67</v>
       </c>
@@ -3254,7 +3224,7 @@
       <c r="K84" s="5"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="3" t="s">
         <v>68</v>
       </c>
@@ -3272,7 +3242,9 @@
       <c r="K85" s="5"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+      <c r="A86" s="12">
+        <v>952</v>
+      </c>
       <c r="B86" s="3" t="s">
         <v>69</v>
       </c>
@@ -3290,7 +3262,7 @@
       <c r="K86" s="5"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="3" t="s">
         <v>70</v>
       </c>
@@ -3308,9 +3280,7 @@
       <c r="K87" s="5"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
-        <v>952</v>
-      </c>
+      <c r="A88" s="13"/>
       <c r="B88" s="3" t="s">
         <v>71</v>
       </c>
@@ -3328,7 +3298,7 @@
       <c r="K88" s="5"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="3" t="s">
         <v>72</v>
       </c>
@@ -3346,7 +3316,7 @@
       <c r="K89" s="5"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="3" t="s">
         <v>73</v>
       </c>
@@ -3364,7 +3334,7 @@
       <c r="K90" s="5"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="3" t="s">
         <v>74</v>
       </c>
@@ -3382,7 +3352,9 @@
       <c r="K91" s="5"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+      <c r="A92" s="12">
+        <v>953</v>
+      </c>
       <c r="B92" s="3" t="s">
         <v>75</v>
       </c>
@@ -3400,7 +3372,7 @@
       <c r="K92" s="5"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="3" t="s">
         <v>76</v>
       </c>
@@ -3418,17 +3390,17 @@
       <c r="K93" s="5"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
-      <c r="I94" s="6"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
       <c r="J94" s="8" t="str">
         <f t="shared" si="2"/>
         <v>Valid</v>
@@ -3436,7 +3408,7 @@
       <c r="K94" s="5"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="3" t="s">
         <v>78</v>
       </c>
@@ -3448,15 +3420,13 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J95:J171" si="3">IF(SUM(F95:I95)=E95, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
       <c r="K95" s="5"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
-        <v>953</v>
-      </c>
+      <c r="A96" s="13"/>
       <c r="B96" s="3" t="s">
         <v>79</v>
       </c>
@@ -3468,13 +3438,13 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
       <c r="K96" s="5"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="14"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="3" t="s">
         <v>80</v>
       </c>
@@ -3486,15 +3456,17 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
       <c r="K97" s="5"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
+      <c r="A98" s="12">
+        <v>954</v>
+      </c>
       <c r="B98" s="3" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -3504,15 +3476,15 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
       <c r="K98" s="5"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="14"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="3" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -3522,15 +3494,15 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="8" t="str">
-        <f t="shared" ref="J99:J181" si="3">IF(SUM(F99:I99)=E99, "Valid", "Error")</f>
+        <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
       <c r="K99" s="5"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="14"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="3" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3546,9 +3518,9 @@
       <c r="K100" s="5"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="3" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3564,9 +3536,9 @@
       <c r="K101" s="5"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="14"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="3" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3582,9 +3554,9 @@
       <c r="K102" s="5"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="3" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -3600,11 +3572,9 @@
       <c r="K103" s="5"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="13">
-        <v>954</v>
-      </c>
+      <c r="A104" s="13"/>
       <c r="B104" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -3620,9 +3590,9 @@
       <c r="K104" s="5"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="14"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3638,9 +3608,9 @@
       <c r="K105" s="5"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="14"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3656,9 +3626,9 @@
       <c r="K106" s="5"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -3674,9 +3644,9 @@
       <c r="K107" s="5"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="14"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3692,9 +3662,9 @@
       <c r="K108" s="5"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="14"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3710,9 +3680,11 @@
       <c r="K109" s="5"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
+      <c r="A110" s="12">
+        <v>961</v>
+      </c>
       <c r="B110" s="3" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3728,9 +3700,9 @@
       <c r="K110" s="5"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="14"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="3" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3746,9 +3718,9 @@
       <c r="K111" s="5"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="14"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="3" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3764,9 +3736,9 @@
       <c r="K112" s="5"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="3" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -3782,9 +3754,9 @@
       <c r="K113" s="5"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="14"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3800,9 +3772,9 @@
       <c r="K114" s="5"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="14"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -3818,9 +3790,9 @@
       <c r="K115" s="5"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -3838,7 +3810,7 @@
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
       <c r="B117" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -3854,9 +3826,11 @@
       <c r="K117" s="5"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="14"/>
+      <c r="A118" s="12">
+        <v>962</v>
+      </c>
       <c r="B118" s="3" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -3872,9 +3846,9 @@
       <c r="K118" s="5"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="3" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -3890,9 +3864,7 @@
       <c r="K119" s="5"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="13">
-        <v>961</v>
-      </c>
+      <c r="A120" s="13"/>
       <c r="B120" s="3" t="s">
         <v>87</v>
       </c>
@@ -3910,7 +3882,7 @@
       <c r="K120" s="5"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="14"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="3" t="s">
         <v>88</v>
       </c>
@@ -3928,9 +3900,9 @@
       <c r="K121" s="5"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
+      <c r="A122" s="13"/>
       <c r="B122" s="3" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -3946,9 +3918,9 @@
       <c r="K122" s="5"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="14"/>
+      <c r="A123" s="13"/>
       <c r="B123" s="3" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -3964,9 +3936,9 @@
       <c r="K123" s="5"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="14"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3984,7 +3956,7 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="14"/>
       <c r="B125" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4000,17 +3972,19 @@
       <c r="K125" s="5"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="14"/>
+      <c r="A126" s="12">
+        <v>963</v>
+      </c>
       <c r="B126" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
       <c r="J126" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
@@ -4018,17 +3992,17 @@
       <c r="K126" s="5"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
       <c r="J127" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
@@ -4036,9 +4010,7 @@
       <c r="K127" s="5"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
-        <v>962</v>
-      </c>
+      <c r="A128" s="13"/>
       <c r="B128" s="3" t="s">
         <v>91</v>
       </c>
@@ -4056,7 +4028,7 @@
       <c r="K128" s="5"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="14"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="3" t="s">
         <v>92</v>
       </c>
@@ -4074,9 +4046,9 @@
       <c r="K129" s="5"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="14"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="3" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4092,9 +4064,9 @@
       <c r="K130" s="5"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
+      <c r="A131" s="13"/>
       <c r="B131" s="3" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4110,9 +4082,9 @@
       <c r="K131" s="5"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="14"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4130,7 +4102,7 @@
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="14"/>
       <c r="B133" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4146,9 +4118,11 @@
       <c r="K133" s="5"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
+      <c r="A134" s="12">
+        <v>964</v>
+      </c>
       <c r="B134" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4164,9 +4138,9 @@
       <c r="K134" s="5"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4182,19 +4156,17 @@
       <c r="K135" s="5"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="13">
-        <v>963</v>
-      </c>
+      <c r="A136" s="13"/>
       <c r="B136" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+      <c r="I136" s="3"/>
       <c r="J136" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
@@ -4202,17 +4174,17 @@
       <c r="K136" s="5"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6"/>
-      <c r="G137" s="6"/>
-      <c r="H137" s="6"/>
-      <c r="I137" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
       <c r="J137" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
@@ -4220,9 +4192,9 @@
       <c r="K137" s="5"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="14"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="3" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4238,17 +4210,17 @@
       <c r="K138" s="5"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="14"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
       <c r="J139" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
@@ -4256,17 +4228,17 @@
       <c r="K139" s="5"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
       <c r="J140" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
@@ -4274,7 +4246,7 @@
       <c r="K140" s="5"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="14"/>
+      <c r="A141" s="13"/>
       <c r="B141" s="3" t="s">
         <v>162</v>
       </c>
@@ -4292,7 +4264,7 @@
       <c r="K141" s="5"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="14"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="3" t="s">
         <v>163</v>
       </c>
@@ -4310,7 +4282,7 @@
       <c r="K142" s="5"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="3" t="s">
         <v>164</v>
       </c>
@@ -4328,9 +4300,7 @@
       <c r="K143" s="5"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="13">
-        <v>964</v>
-      </c>
+      <c r="A144" s="13"/>
       <c r="B144" s="3" t="s">
         <v>165</v>
       </c>
@@ -4348,7 +4318,7 @@
       <c r="K144" s="5"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="14"/>
+      <c r="A145" s="13"/>
       <c r="B145" s="3" t="s">
         <v>166</v>
       </c>
@@ -4366,7 +4336,7 @@
       <c r="K145" s="5"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
+      <c r="A146" s="13"/>
       <c r="B146" s="3" t="s">
         <v>167</v>
       </c>
@@ -4384,7 +4354,7 @@
       <c r="K146" s="5"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="14"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="3" t="s">
         <v>168</v>
       </c>
@@ -4402,7 +4372,7 @@
       <c r="K147" s="5"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="14"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="3" t="s">
         <v>169</v>
       </c>
@@ -4420,35 +4390,37 @@
       <c r="K148" s="5"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="14"/>
+      <c r="A149" s="13"/>
       <c r="B149" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
-      <c r="G149" s="6"/>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
       <c r="J149" s="8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J149" si="4">IF(SUM(F149:I149)=E149, "Valid", "Error")</f>
         <v>Valid</v>
       </c>
       <c r="K149" s="5"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="14"/>
+      <c r="A150" s="15">
+        <v>971</v>
+      </c>
       <c r="B150" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="3"/>
       <c r="J150" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
@@ -4456,7 +4428,7 @@
       <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="14"/>
+      <c r="A151" s="15"/>
       <c r="B151" s="3" t="s">
         <v>172</v>
       </c>
@@ -4474,7 +4446,9 @@
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
+      <c r="A152" s="15">
+        <v>972</v>
+      </c>
       <c r="B152" s="3" t="s">
         <v>173</v>
       </c>
@@ -4492,7 +4466,7 @@
       <c r="K152" s="5"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="14"/>
+      <c r="A153" s="15"/>
       <c r="B153" s="3" t="s">
         <v>174</v>
       </c>
@@ -4510,7 +4484,9 @@
       <c r="K153" s="5"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="14"/>
+      <c r="A154" s="15">
+        <v>973</v>
+      </c>
       <c r="B154" s="3" t="s">
         <v>175</v>
       </c>
@@ -4528,7 +4504,7 @@
       <c r="K154" s="5"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
+      <c r="A155" s="15"/>
       <c r="B155" s="3" t="s">
         <v>176</v>
       </c>
@@ -4546,7 +4522,9 @@
       <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="14"/>
+      <c r="A156" s="12">
+        <v>974</v>
+      </c>
       <c r="B156" s="3" t="s">
         <v>177</v>
       </c>
@@ -4564,7 +4542,7 @@
       <c r="K156" s="5"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="14"/>
+      <c r="A157" s="13"/>
       <c r="B157" s="3" t="s">
         <v>178</v>
       </c>
@@ -4582,7 +4560,7 @@
       <c r="K157" s="5"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="3" t="s">
         <v>179</v>
       </c>
@@ -4600,7 +4578,7 @@
       <c r="K158" s="5"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="14"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="3" t="s">
         <v>180</v>
       </c>
@@ -4612,235 +4590,407 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="8" t="str">
-        <f t="shared" ref="J159" si="4">IF(SUM(F159:I159)=E159, "Valid", "Error")</f>
+        <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
       <c r="K159" s="5"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="12">
-        <v>971</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-      <c r="J160" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K160" s="5"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-      <c r="B161" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>0</v>
+      </c>
+      <c r="B161" s="3">
+        <v>0</v>
+      </c>
+      <c r="C161" s="3">
+        <v>821</v>
+      </c>
+      <c r="D161" s="3">
+        <v>10068</v>
+      </c>
+      <c r="E161" s="3">
+        <v>5169</v>
+      </c>
+      <c r="F161" s="3">
+        <v>5169</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0</v>
+      </c>
       <c r="J161" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K161" s="5"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="12">
-        <v>972</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
+      <c r="K161" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>101</v>
+      </c>
+      <c r="B162" s="3">
+        <v>101</v>
+      </c>
+      <c r="C162" s="3">
+        <v>833</v>
+      </c>
+      <c r="D162" s="3">
+        <v>10092</v>
+      </c>
+      <c r="E162" s="3">
+        <v>5178</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1811</v>
+      </c>
+      <c r="G162" s="3">
+        <v>3367</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0</v>
+      </c>
       <c r="J162" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K162" s="5"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
-      <c r="B163" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
+      <c r="K162" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>102</v>
+      </c>
+      <c r="B163" s="3">
+        <v>102</v>
+      </c>
+      <c r="C163" s="3">
+        <v>833</v>
+      </c>
+      <c r="D163" s="3">
+        <v>10053</v>
+      </c>
+      <c r="E163" s="3">
+        <v>5123</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1753</v>
+      </c>
+      <c r="G163" s="3">
+        <v>3370</v>
+      </c>
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0</v>
+      </c>
       <c r="J163" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K163" s="5"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="12">
-        <v>973</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
+      <c r="K163" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>103</v>
+      </c>
+      <c r="B164" s="3">
+        <v>103</v>
+      </c>
+      <c r="C164" s="3">
+        <v>837</v>
+      </c>
+      <c r="D164" s="3">
+        <v>10123</v>
+      </c>
+      <c r="E164" s="3">
+        <v>5096</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1814</v>
+      </c>
+      <c r="G164" s="3">
+        <v>3282</v>
+      </c>
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0</v>
+      </c>
       <c r="J164" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K164" s="5"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
-      <c r="B165" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
+      <c r="K164" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>104</v>
+      </c>
+      <c r="B165" s="3">
+        <v>104</v>
+      </c>
+      <c r="C165" s="3">
+        <v>836</v>
+      </c>
+      <c r="D165" s="3">
+        <v>10072</v>
+      </c>
+      <c r="E165" s="3">
+        <v>5141</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G165" s="3">
+        <v>3341</v>
+      </c>
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0</v>
+      </c>
       <c r="J165" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K165" s="5"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="13">
-        <v>974</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
+      <c r="K165" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>105</v>
+      </c>
+      <c r="B166" s="3">
+        <v>105</v>
+      </c>
+      <c r="C166" s="3">
+        <v>836</v>
+      </c>
+      <c r="D166" s="3">
+        <v>10083</v>
+      </c>
+      <c r="E166" s="3">
+        <v>5231</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1726</v>
+      </c>
+      <c r="G166" s="3">
+        <v>3505</v>
+      </c>
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0</v>
+      </c>
       <c r="J166" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K166" s="5"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
+      <c r="K166" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>106</v>
+      </c>
+      <c r="B167" s="3">
+        <v>106</v>
+      </c>
+      <c r="C167" s="3">
+        <v>837</v>
+      </c>
+      <c r="D167" s="3">
+        <v>10139</v>
+      </c>
+      <c r="E167" s="3">
+        <v>5132</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1667</v>
+      </c>
+      <c r="G167" s="3">
+        <v>3465</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+      <c r="I167" s="3">
+        <v>0</v>
+      </c>
       <c r="J167" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K167" s="5"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="14"/>
-      <c r="B168" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
+      <c r="K167" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>107</v>
+      </c>
+      <c r="B168" s="3">
+        <v>107</v>
+      </c>
+      <c r="C168" s="3">
+        <v>829</v>
+      </c>
+      <c r="D168" s="3">
+        <v>10020</v>
+      </c>
+      <c r="E168" s="3">
+        <v>5078</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1716</v>
+      </c>
+      <c r="G168" s="3">
+        <v>3362</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0</v>
+      </c>
       <c r="J168" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K168" s="5"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="14"/>
-      <c r="B169" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
+      <c r="K168" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>108</v>
+      </c>
+      <c r="B169" s="3">
+        <v>108</v>
+      </c>
+      <c r="C169" s="3">
+        <v>836</v>
+      </c>
+      <c r="D169" s="3">
+        <v>10114</v>
+      </c>
+      <c r="E169" s="3">
+        <v>5166</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1814</v>
+      </c>
+      <c r="G169" s="3">
+        <v>3352</v>
+      </c>
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0</v>
+      </c>
       <c r="J169" s="8" t="str">
         <f t="shared" si="3"/>
         <v>Valid</v>
       </c>
-      <c r="K169" s="5"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="10"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K169" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>109</v>
+      </c>
+      <c r="B170" s="3">
+        <v>109</v>
+      </c>
+      <c r="C170" s="3">
+        <v>841</v>
+      </c>
+      <c r="D170" s="3">
+        <v>10171</v>
+      </c>
+      <c r="E170" s="3">
+        <v>5223</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1783</v>
+      </c>
+      <c r="G170" s="3">
+        <v>3440</v>
+      </c>
+      <c r="H170" s="3">
+        <v>0</v>
+      </c>
+      <c r="I170" s="3">
+        <v>0</v>
+      </c>
+      <c r="J170" s="8" t="str">
+        <f t="shared" si="3"/>
+        <v>Valid</v>
+      </c>
+      <c r="K170" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B171" s="3">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="C171" s="3">
-        <v>821</v>
+        <v>833</v>
       </c>
       <c r="D171" s="3">
-        <v>10068</v>
+        <v>10146</v>
       </c>
       <c r="E171" s="3">
-        <v>5169</v>
+        <v>5166</v>
       </c>
       <c r="F171" s="3">
-        <v>5169</v>
+        <v>1744</v>
       </c>
       <c r="G171" s="3">
-        <v>0</v>
+        <v>3422</v>
       </c>
       <c r="H171" s="3">
         <v>0</v>
@@ -4853,451 +5003,91 @@
         <v>Valid</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
-        <v>101</v>
-      </c>
-      <c r="B172" s="3">
-        <v>101</v>
-      </c>
-      <c r="C172" s="3">
-        <v>833</v>
-      </c>
-      <c r="D172" s="3">
-        <v>10092</v>
-      </c>
-      <c r="E172" s="3">
-        <v>5178</v>
-      </c>
-      <c r="F172" s="3">
-        <v>1811</v>
-      </c>
-      <c r="G172" s="3">
-        <v>3367</v>
-      </c>
-      <c r="H172" s="3">
-        <v>0</v>
-      </c>
-      <c r="I172" s="3">
-        <v>0</v>
-      </c>
-      <c r="J172" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K172" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
-        <v>102</v>
-      </c>
-      <c r="B173" s="3">
-        <v>102</v>
-      </c>
-      <c r="C173" s="3">
-        <v>833</v>
-      </c>
-      <c r="D173" s="3">
-        <v>10053</v>
-      </c>
-      <c r="E173" s="3">
-        <v>5123</v>
-      </c>
-      <c r="F173" s="3">
-        <v>1753</v>
-      </c>
-      <c r="G173" s="3">
-        <v>3370</v>
-      </c>
-      <c r="H173" s="3">
-        <v>0</v>
-      </c>
-      <c r="I173" s="3">
-        <v>0</v>
-      </c>
-      <c r="J173" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K173" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
-        <v>103</v>
-      </c>
-      <c r="B174" s="3">
-        <v>103</v>
-      </c>
-      <c r="C174" s="3">
-        <v>837</v>
-      </c>
-      <c r="D174" s="3">
-        <v>10123</v>
-      </c>
-      <c r="E174" s="3">
-        <v>5096</v>
-      </c>
-      <c r="F174" s="3">
-        <v>1814</v>
-      </c>
-      <c r="G174" s="3">
-        <v>3282</v>
-      </c>
-      <c r="H174" s="3">
-        <v>0</v>
-      </c>
-      <c r="I174" s="3">
-        <v>0</v>
-      </c>
-      <c r="J174" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K174" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
-        <v>104</v>
-      </c>
-      <c r="B175" s="3">
-        <v>104</v>
-      </c>
-      <c r="C175" s="3">
-        <v>836</v>
-      </c>
-      <c r="D175" s="3">
-        <v>10072</v>
-      </c>
-      <c r="E175" s="3">
-        <v>5141</v>
-      </c>
-      <c r="F175" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G175" s="3">
-        <v>3341</v>
-      </c>
-      <c r="H175" s="3">
-        <v>0</v>
-      </c>
-      <c r="I175" s="3">
-        <v>0</v>
-      </c>
-      <c r="J175" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K175" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
-        <v>105</v>
-      </c>
-      <c r="B176" s="3">
-        <v>105</v>
-      </c>
-      <c r="C176" s="3">
-        <v>836</v>
-      </c>
-      <c r="D176" s="3">
-        <v>10083</v>
-      </c>
-      <c r="E176" s="3">
-        <v>5231</v>
-      </c>
-      <c r="F176" s="3">
-        <v>1726</v>
-      </c>
-      <c r="G176" s="3">
-        <v>3505</v>
-      </c>
-      <c r="H176" s="3">
-        <v>0</v>
-      </c>
-      <c r="I176" s="3">
-        <v>0</v>
-      </c>
-      <c r="J176" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K176" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
-        <v>106</v>
-      </c>
-      <c r="B177" s="3">
-        <v>106</v>
-      </c>
-      <c r="C177" s="3">
-        <v>837</v>
-      </c>
-      <c r="D177" s="3">
-        <v>10139</v>
-      </c>
-      <c r="E177" s="3">
-        <v>5132</v>
-      </c>
-      <c r="F177" s="3">
-        <v>1667</v>
-      </c>
-      <c r="G177" s="3">
-        <v>3465</v>
-      </c>
-      <c r="H177" s="3">
-        <v>0</v>
-      </c>
-      <c r="I177" s="3">
-        <v>0</v>
-      </c>
-      <c r="J177" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K177" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
-        <v>107</v>
-      </c>
-      <c r="B178" s="3">
-        <v>107</v>
-      </c>
-      <c r="C178" s="3">
-        <v>829</v>
-      </c>
-      <c r="D178" s="3">
-        <v>10020</v>
-      </c>
-      <c r="E178" s="3">
-        <v>5078</v>
-      </c>
-      <c r="F178" s="3">
-        <v>1716</v>
-      </c>
-      <c r="G178" s="3">
-        <v>3362</v>
-      </c>
-      <c r="H178" s="3">
-        <v>0</v>
-      </c>
-      <c r="I178" s="3">
-        <v>0</v>
-      </c>
-      <c r="J178" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
-        <v>108</v>
-      </c>
-      <c r="B179" s="3">
-        <v>108</v>
-      </c>
-      <c r="C179" s="3">
-        <v>836</v>
-      </c>
-      <c r="D179" s="3">
-        <v>10114</v>
-      </c>
-      <c r="E179" s="3">
-        <v>5166</v>
-      </c>
-      <c r="F179" s="3">
-        <v>1814</v>
-      </c>
-      <c r="G179" s="3">
-        <v>3352</v>
-      </c>
-      <c r="H179" s="3">
-        <v>0</v>
-      </c>
-      <c r="I179" s="3">
-        <v>0</v>
-      </c>
-      <c r="J179" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K179" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>109</v>
-      </c>
-      <c r="B180" s="3">
-        <v>109</v>
-      </c>
-      <c r="C180" s="3">
-        <v>841</v>
-      </c>
-      <c r="D180" s="3">
-        <v>10171</v>
-      </c>
-      <c r="E180" s="3">
-        <v>5223</v>
-      </c>
-      <c r="F180" s="3">
-        <v>1783</v>
-      </c>
-      <c r="G180" s="3">
-        <v>3440</v>
-      </c>
-      <c r="H180" s="3">
-        <v>0</v>
-      </c>
-      <c r="I180" s="3">
-        <v>0</v>
-      </c>
-      <c r="J180" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K180" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
-        <v>110</v>
-      </c>
-      <c r="B181" s="3">
-        <v>110</v>
-      </c>
-      <c r="C181" s="3">
-        <v>833</v>
-      </c>
-      <c r="D181" s="3">
-        <v>10146</v>
-      </c>
-      <c r="E181" s="3">
-        <v>5166</v>
-      </c>
-      <c r="F181" s="3">
-        <v>1744</v>
-      </c>
-      <c r="G181" s="3">
-        <v>3422</v>
-      </c>
-      <c r="H181" s="3">
-        <v>0</v>
-      </c>
-      <c r="I181" s="3">
-        <v>0</v>
-      </c>
-      <c r="J181" s="8" t="str">
-        <f t="shared" si="3"/>
-        <v>Valid</v>
-      </c>
-      <c r="K181" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="9">
-        <f>COUNTA(A2:A181)</f>
+    <row r="172" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9">
+        <f>COUNTA(A2:A171)</f>
         <v>39</v>
       </c>
-      <c r="B182" s="9">
-        <f>COUNTA(B2:B181)</f>
-        <v>179</v>
-      </c>
-      <c r="C182" s="9">
-        <f>SUM(C2:C181)</f>
+      <c r="B172" s="9">
+        <f>COUNTA(B2:B171)</f>
+        <v>169</v>
+      </c>
+      <c r="C172" s="9">
+        <f>SUM(C2:C171)</f>
         <v>21338</v>
       </c>
-      <c r="D182" s="9">
-        <f t="shared" ref="D182:I182" si="5">SUM(D2:D181)</f>
+      <c r="D172" s="9">
+        <f t="shared" ref="D172:I172" si="5">SUM(D2:D171)</f>
         <v>259065</v>
       </c>
-      <c r="E182" s="9">
+      <c r="E172" s="9">
         <f t="shared" si="5"/>
         <v>133772</v>
       </c>
-      <c r="F182" s="9">
+      <c r="F172" s="9">
         <f t="shared" si="5"/>
         <v>52206</v>
       </c>
-      <c r="G182" s="9">
+      <c r="G172" s="9">
         <f t="shared" si="5"/>
         <v>65163</v>
       </c>
-      <c r="H182" s="9">
+      <c r="H172" s="9">
         <f t="shared" si="5"/>
         <v>16403</v>
       </c>
-      <c r="I182" s="9">
+      <c r="I172" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J182" s="16" t="s">
+      <c r="J172" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="K182" s="16"/>
-      <c r="L182" s="9" t="s">
+      <c r="K172" s="16"/>
+      <c r="L172" s="9" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="A96:A103"/>
-    <mergeCell ref="A104:A119"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A67"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="A72:A79"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="C170:I170"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="A136:A143"/>
-    <mergeCell ref="A144:A159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A36:A43"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A14:A21"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A55"/>
-    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="C160:I160"/>
+    <mergeCell ref="A110:A117"/>
+    <mergeCell ref="A118:A125"/>
+    <mergeCell ref="A126:A133"/>
+    <mergeCell ref="A134:A149"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A92:A97"/>
+    <mergeCell ref="A98:A109"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="A72:A79"/>
+    <mergeCell ref="A80:A85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K171:K172 K177:K181 K175:K176 K173:K174" numberStoredAsText="1"/>
+    <ignoredError sqref="K161:K162 K167:K171 K165:K166 K163:K164" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>